--- a/results/squad/result_squad_rag3_and_change_template.xlsx
+++ b/results/squad/result_squad_rag3_and_change_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PycharmProjects\Rag\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PycharmProjects\Rag\results\squad\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B59FE4F1-9A23-4731-8C7E-2312D0D50E49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AA15D83-D7A3-4535-8FA7-DDA812E2F1B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-83" yWindow="0" windowWidth="11415" windowHeight="14362" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -6756,18 +6756,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>RAG 3 (3 chunks)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>similarity RAG 3 (3 chunks)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>similarity CrossEncoder RAG 3 (3 chunks)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>RAG (2 chunks) template reducido</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -6797,6 +6785,18 @@
   </si>
   <si>
     <t>similarity CrossEncoder RAG 2 (2 chunks) template ampliado</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RAG 3 (4 chunks)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>similarity RAG 3 (4 chunks)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>similarity CrossEncoder RAG 3 (4 chunks)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -7180,8 +7180,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O505"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1"/>
+    <sheetView tabSelected="1" topLeftCell="G492" zoomScale="143" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="N1" sqref="N1:N1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -7197,40 +7197,40 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>2248</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>2249</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>2250</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>2240</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>2241</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>2242</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>2243</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>2244</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>2245</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>2246</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>2247</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>2248</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>2249</v>
       </c>
       <c r="N1" s="2" t="s">
         <v>2239</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>2250</v>
+        <v>2247</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
